--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H2">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I2">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J2">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.896968118302986</v>
+        <v>1.1331785</v>
       </c>
       <c r="N2">
-        <v>0.896968118302986</v>
+        <v>2.266357</v>
       </c>
       <c r="O2">
-        <v>0.1116434159165839</v>
+        <v>0.127252734974101</v>
       </c>
       <c r="P2">
-        <v>0.1116434159165839</v>
+        <v>0.1025085582972401</v>
       </c>
       <c r="Q2">
-        <v>11.07393853139928</v>
+        <v>15.20711571131833</v>
       </c>
       <c r="R2">
-        <v>11.07393853139928</v>
+        <v>91.24269426791</v>
       </c>
       <c r="S2">
-        <v>0.08272792189119677</v>
+        <v>0.09475759244626369</v>
       </c>
       <c r="T2">
-        <v>0.08272792189119677</v>
+        <v>0.08092261434126384</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H3">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I3">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J3">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.71997852192421</v>
+        <v>3.006917666666666</v>
       </c>
       <c r="N3">
-        <v>2.71997852192421</v>
+        <v>9.020752999999999</v>
       </c>
       <c r="O3">
-        <v>0.3385490378207445</v>
+        <v>0.3376683346227231</v>
       </c>
       <c r="P3">
-        <v>0.3385490378207445</v>
+        <v>0.4080135586694875</v>
       </c>
       <c r="Q3">
-        <v>33.58076429238309</v>
+        <v>40.35246423348777</v>
       </c>
       <c r="R3">
-        <v>33.58076429238309</v>
+        <v>363.1721781013899</v>
       </c>
       <c r="S3">
-        <v>0.2508652940008623</v>
+        <v>0.2514416561710888</v>
       </c>
       <c r="T3">
-        <v>0.2508652940008623</v>
+        <v>0.3220952904095863</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H4">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I4">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J4">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.215314321627961</v>
+        <v>0.1833036666666667</v>
       </c>
       <c r="N4">
-        <v>0.215314321627961</v>
+        <v>0.549911</v>
       </c>
       <c r="O4">
-        <v>0.02679964412535301</v>
+        <v>0.02058448242189054</v>
       </c>
       <c r="P4">
-        <v>0.02679964412535301</v>
+        <v>0.02487277326643314</v>
       </c>
       <c r="Q4">
-        <v>2.658263447701</v>
+        <v>2.459912599214444</v>
       </c>
       <c r="R4">
-        <v>2.658263447701</v>
+        <v>22.13921339293</v>
       </c>
       <c r="S4">
-        <v>0.01985857247122033</v>
+        <v>0.01532804773467355</v>
       </c>
       <c r="T4">
-        <v>0.01985857247122033</v>
+        <v>0.01963513946612062</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H5">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I5">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J5">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.780637604859571</v>
+        <v>0.250485</v>
       </c>
       <c r="N5">
-        <v>0.780637604859571</v>
+        <v>0.751455</v>
       </c>
       <c r="O5">
-        <v>0.09716404298109468</v>
+        <v>0.02812875581383488</v>
       </c>
       <c r="P5">
-        <v>0.09716404298109468</v>
+        <v>0.03398871787421513</v>
       </c>
       <c r="Q5">
-        <v>9.637725884693653</v>
+        <v>3.36147780685</v>
       </c>
       <c r="R5">
-        <v>9.637725884693653</v>
+        <v>30.25330026164999</v>
       </c>
       <c r="S5">
-        <v>0.0719986870016476</v>
+        <v>0.02094582234299571</v>
       </c>
       <c r="T5">
-        <v>0.0719986870016476</v>
+        <v>0.02683147587066575</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H6">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I6">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J6">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.42132459762458</v>
+        <v>0.8583593333333334</v>
       </c>
       <c r="N6">
-        <v>3.42132459762458</v>
+        <v>2.575078</v>
       </c>
       <c r="O6">
-        <v>0.425843859156224</v>
+        <v>0.09639132118833237</v>
       </c>
       <c r="P6">
-        <v>0.425843859156224</v>
+        <v>0.1164721768383977</v>
       </c>
       <c r="Q6">
-        <v>42.23955959743596</v>
+        <v>11.51907638901555</v>
       </c>
       <c r="R6">
-        <v>42.23955959743596</v>
+        <v>103.67168750114</v>
       </c>
       <c r="S6">
-        <v>0.3155508744415696</v>
+        <v>0.07177692118271446</v>
       </c>
       <c r="T6">
-        <v>0.3155508744415696</v>
+        <v>0.0919458160795819</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.555426551986694</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H7">
-        <v>0.555426551986694</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I7">
-        <v>0.03333654093683805</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J7">
-        <v>0.03333654093683805</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.896968118302986</v>
+        <v>3.4727</v>
       </c>
       <c r="N7">
-        <v>0.896968118302986</v>
+        <v>6.9454</v>
       </c>
       <c r="O7">
-        <v>0.1116434159165839</v>
+        <v>0.3899743709791181</v>
       </c>
       <c r="P7">
-        <v>0.1116434159165839</v>
+        <v>0.3141442150542265</v>
       </c>
       <c r="Q7">
-        <v>0.4981999091910205</v>
+        <v>46.60320570033333</v>
       </c>
       <c r="R7">
-        <v>0.4981999091910205</v>
+        <v>279.619234202</v>
       </c>
       <c r="S7">
-        <v>0.003721805305031635</v>
+        <v>0.2903908707129018</v>
       </c>
       <c r="T7">
-        <v>0.003721805305031635</v>
+        <v>0.2479926709012807</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H8">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I8">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J8">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.71997852192421</v>
+        <v>1.1331785</v>
       </c>
       <c r="N8">
-        <v>2.71997852192421</v>
+        <v>2.266357</v>
       </c>
       <c r="O8">
-        <v>0.3385490378207445</v>
+        <v>0.127252734974101</v>
       </c>
       <c r="P8">
-        <v>0.3385490378207445</v>
+        <v>0.1025085582972401</v>
       </c>
       <c r="Q8">
-        <v>1.510748291910228</v>
+        <v>0.1324746102686667</v>
       </c>
       <c r="R8">
-        <v>1.510748291910228</v>
+        <v>0.7948476616120002</v>
       </c>
       <c r="S8">
-        <v>0.01128605385843838</v>
+        <v>0.0008254671936225898</v>
       </c>
       <c r="T8">
-        <v>0.01128605385843838</v>
+        <v>0.000704945763567889</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H9">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I9">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J9">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.215314321627961</v>
+        <v>3.006917666666666</v>
       </c>
       <c r="N9">
-        <v>0.215314321627961</v>
+        <v>9.020752999999999</v>
       </c>
       <c r="O9">
-        <v>0.02679964412535301</v>
+        <v>0.3376683346227231</v>
       </c>
       <c r="P9">
-        <v>0.02679964412535301</v>
+        <v>0.4080135586694875</v>
       </c>
       <c r="Q9">
-        <v>0.1195912912551724</v>
+        <v>0.3515247121275555</v>
       </c>
       <c r="R9">
-        <v>0.1195912912551724</v>
+        <v>3.163722409148</v>
       </c>
       <c r="S9">
-        <v>0.0008934074334775219</v>
+        <v>0.002190397971508918</v>
       </c>
       <c r="T9">
-        <v>0.0008934074334775219</v>
+        <v>0.002805886985828943</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H10">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I10">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J10">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.780637604859571</v>
+        <v>0.1833036666666667</v>
       </c>
       <c r="N10">
-        <v>0.780637604859571</v>
+        <v>0.549911</v>
       </c>
       <c r="O10">
-        <v>0.09716404298109468</v>
+        <v>0.02058448242189054</v>
       </c>
       <c r="P10">
-        <v>0.09716404298109468</v>
+        <v>0.02487277326643314</v>
       </c>
       <c r="Q10">
-        <v>0.4335868532183028</v>
+        <v>0.02142917625288889</v>
       </c>
       <c r="R10">
-        <v>0.4335868532183028</v>
+        <v>0.192862586276</v>
       </c>
       <c r="S10">
-        <v>0.003239113096427955</v>
+        <v>0.000133528092267956</v>
       </c>
       <c r="T10">
-        <v>0.003239113096427955</v>
+        <v>0.0001710487049433878</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H11">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I11">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J11">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.42132459762458</v>
+        <v>0.250485</v>
       </c>
       <c r="N11">
-        <v>3.42132459762458</v>
+        <v>0.751455</v>
       </c>
       <c r="O11">
-        <v>0.425843859156224</v>
+        <v>0.02812875581383488</v>
       </c>
       <c r="P11">
-        <v>0.425843859156224</v>
+        <v>0.03398871787421513</v>
       </c>
       <c r="Q11">
-        <v>1.900294524485884</v>
+        <v>0.02928303242</v>
       </c>
       <c r="R11">
-        <v>1.900294524485884</v>
+        <v>0.26354729178</v>
       </c>
       <c r="S11">
-        <v>0.01419616124346256</v>
+        <v>0.0001824665310845153</v>
       </c>
       <c r="T11">
-        <v>0.01419616124346256</v>
+        <v>0.0002337385587362927</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.71304441013081</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H12">
-        <v>0.71304441013081</v>
+        <v>0.350716</v>
       </c>
       <c r="I12">
-        <v>0.04279671917571334</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J12">
-        <v>0.04279671917571334</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.896968118302986</v>
+        <v>0.8583593333333334</v>
       </c>
       <c r="N12">
-        <v>0.896968118302986</v>
+        <v>2.575078</v>
       </c>
       <c r="O12">
-        <v>0.1116434159165839</v>
+        <v>0.09639132118833237</v>
       </c>
       <c r="P12">
-        <v>0.1116434159165839</v>
+        <v>0.1164721768383977</v>
       </c>
       <c r="Q12">
-        <v>0.6395781028214952</v>
+        <v>0.1003467839831111</v>
       </c>
       <c r="R12">
-        <v>0.6395781028214952</v>
+        <v>0.9031210558480001</v>
       </c>
       <c r="S12">
-        <v>0.004777971918799405</v>
+        <v>0.0006252743676361878</v>
       </c>
       <c r="T12">
-        <v>0.004777971918799405</v>
+        <v>0.000800972806559987</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.71304441013081</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H13">
-        <v>0.71304441013081</v>
+        <v>0.350716</v>
       </c>
       <c r="I13">
-        <v>0.04279671917571334</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J13">
-        <v>0.04279671917571334</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.71997852192421</v>
+        <v>3.4727</v>
       </c>
       <c r="N13">
-        <v>2.71997852192421</v>
+        <v>6.9454</v>
       </c>
       <c r="O13">
-        <v>0.3385490378207445</v>
+        <v>0.3899743709791181</v>
       </c>
       <c r="P13">
-        <v>0.3385490378207445</v>
+        <v>0.3141442150542265</v>
       </c>
       <c r="Q13">
-        <v>1.939465480733921</v>
+        <v>0.4059771510666667</v>
       </c>
       <c r="R13">
-        <v>1.939465480733921</v>
+        <v>2.4358629064</v>
       </c>
       <c r="S13">
-        <v>0.01448878809882236</v>
+        <v>0.002529698474947387</v>
       </c>
       <c r="T13">
-        <v>0.01448878809882236</v>
+        <v>0.002160352630359832</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H14">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I14">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J14">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.215314321627961</v>
+        <v>1.1331785</v>
       </c>
       <c r="N14">
-        <v>0.215314321627961</v>
+        <v>2.266357</v>
       </c>
       <c r="O14">
-        <v>0.02679964412535301</v>
+        <v>0.127252734974101</v>
       </c>
       <c r="P14">
-        <v>0.02679964412535301</v>
+        <v>0.1025085582972401</v>
       </c>
       <c r="Q14">
-        <v>0.153528673457925</v>
+        <v>0.6311902453803333</v>
       </c>
       <c r="R14">
-        <v>0.153528673457925</v>
+        <v>3.787141472282</v>
       </c>
       <c r="S14">
-        <v>0.001146936843641788</v>
+        <v>0.003933031691426629</v>
       </c>
       <c r="T14">
-        <v>0.001146936843641788</v>
+        <v>0.003358793723445167</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H15">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I15">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J15">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.780637604859571</v>
+        <v>3.006917666666666</v>
       </c>
       <c r="N15">
-        <v>0.780637604859571</v>
+        <v>9.020752999999999</v>
       </c>
       <c r="O15">
-        <v>0.09716404298109468</v>
+        <v>0.3376683346227231</v>
       </c>
       <c r="P15">
-        <v>0.09716404298109468</v>
+        <v>0.4080135586694875</v>
       </c>
       <c r="Q15">
-        <v>0.5566292804830212</v>
+        <v>1.674879200286444</v>
       </c>
       <c r="R15">
-        <v>0.5566292804830212</v>
+        <v>15.073912802578</v>
       </c>
       <c r="S15">
-        <v>0.00415830226143885</v>
+        <v>0.01043639856960806</v>
       </c>
       <c r="T15">
-        <v>0.00415830226143885</v>
+        <v>0.01336896550594154</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H16">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I16">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J16">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>3.42132459762458</v>
+        <v>0.1833036666666667</v>
       </c>
       <c r="N16">
-        <v>3.42132459762458</v>
+        <v>0.549911</v>
       </c>
       <c r="O16">
-        <v>0.425843859156224</v>
+        <v>0.02058448242189054</v>
       </c>
       <c r="P16">
-        <v>0.425843859156224</v>
+        <v>0.02487277326643314</v>
       </c>
       <c r="Q16">
-        <v>2.439556379579249</v>
+        <v>0.1021017309651111</v>
       </c>
       <c r="R16">
-        <v>2.439556379579249</v>
+        <v>0.918915578686</v>
       </c>
       <c r="S16">
-        <v>0.01822472005301094</v>
+        <v>0.0006362096793706401</v>
       </c>
       <c r="T16">
-        <v>0.01822472005301094</v>
+        <v>0.0008149808769110318</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.04675560919185</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H17">
-        <v>3.04675560919185</v>
+        <v>1.671026</v>
       </c>
       <c r="I17">
-        <v>0.1828653900809522</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J17">
-        <v>0.1828653900809522</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.896968118302986</v>
+        <v>0.250485</v>
       </c>
       <c r="N17">
-        <v>0.896968118302986</v>
+        <v>0.751455</v>
       </c>
       <c r="O17">
-        <v>0.1116434159165839</v>
+        <v>0.02812875581383488</v>
       </c>
       <c r="P17">
-        <v>0.1116434159165839</v>
+        <v>0.03398871787421513</v>
       </c>
       <c r="Q17">
-        <v>2.732842645705881</v>
+        <v>0.13952231587</v>
       </c>
       <c r="R17">
-        <v>2.732842645705881</v>
+        <v>1.25570084283</v>
       </c>
       <c r="S17">
-        <v>0.0204157168015561</v>
+        <v>0.000869382399354558</v>
       </c>
       <c r="T17">
-        <v>0.0204157168015561</v>
+        <v>0.001113673766953524</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.04675560919185</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H18">
-        <v>3.04675560919185</v>
+        <v>1.671026</v>
       </c>
       <c r="I18">
-        <v>0.1828653900809522</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J18">
-        <v>0.1828653900809522</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.71997852192421</v>
+        <v>0.8583593333333334</v>
       </c>
       <c r="N18">
-        <v>2.71997852192421</v>
+        <v>2.575078</v>
       </c>
       <c r="O18">
-        <v>0.3385490378207445</v>
+        <v>0.09639132118833237</v>
       </c>
       <c r="P18">
-        <v>0.3385490378207445</v>
+        <v>0.1164721768383977</v>
       </c>
       <c r="Q18">
-        <v>8.287109818553944</v>
+        <v>0.4781135877808889</v>
       </c>
       <c r="R18">
-        <v>8.287109818553944</v>
+        <v>4.303022290027999</v>
       </c>
       <c r="S18">
-        <v>0.06190890186262147</v>
+        <v>0.002979190357593118</v>
       </c>
       <c r="T18">
-        <v>0.06190890186262147</v>
+        <v>0.003816325417302628</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.04675560919185</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H19">
-        <v>3.04675560919185</v>
+        <v>1.671026</v>
       </c>
       <c r="I19">
-        <v>0.1828653900809522</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J19">
-        <v>0.1828653900809522</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.215314321627961</v>
+        <v>3.4727</v>
       </c>
       <c r="N19">
-        <v>0.215314321627961</v>
+        <v>6.9454</v>
       </c>
       <c r="O19">
-        <v>0.02679964412535301</v>
+        <v>0.3899743709791181</v>
       </c>
       <c r="P19">
-        <v>0.02679964412535301</v>
+        <v>0.3141442150542265</v>
       </c>
       <c r="Q19">
-        <v>0.6560101171593282</v>
+        <v>1.934323996733333</v>
       </c>
       <c r="R19">
-        <v>0.6560101171593282</v>
+        <v>11.6059439804</v>
       </c>
       <c r="S19">
-        <v>0.004900727377013376</v>
+        <v>0.01205303414670968</v>
       </c>
       <c r="T19">
-        <v>0.004900727377013376</v>
+        <v>0.0102932441476855</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H20">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I20">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J20">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.780637604859571</v>
+        <v>1.1331785</v>
       </c>
       <c r="N20">
-        <v>0.780637604859571</v>
+        <v>2.266357</v>
       </c>
       <c r="O20">
-        <v>0.09716404298109468</v>
+        <v>0.127252734974101</v>
       </c>
       <c r="P20">
-        <v>0.09716404298109468</v>
+        <v>0.1025085582972401</v>
       </c>
       <c r="Q20">
-        <v>2.378412001351989</v>
+        <v>0.9758102244433334</v>
       </c>
       <c r="R20">
-        <v>2.378412001351989</v>
+        <v>5.854861346660001</v>
       </c>
       <c r="S20">
-        <v>0.01776794062158028</v>
+        <v>0.006080405338395528</v>
       </c>
       <c r="T20">
-        <v>0.01776794062158028</v>
+        <v>0.005192642441992989</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1706,681 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H21">
+        <v>2.58338</v>
+      </c>
+      <c r="I21">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J21">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.006917666666666</v>
+      </c>
+      <c r="N21">
+        <v>9.020752999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.3376683346227231</v>
+      </c>
+      <c r="P21">
+        <v>0.4080135586694875</v>
+      </c>
+      <c r="Q21">
+        <v>2.589336987237778</v>
+      </c>
+      <c r="R21">
+        <v>23.30403288514</v>
+      </c>
+      <c r="S21">
+        <v>0.01613450858140692</v>
+      </c>
+      <c r="T21">
+        <v>0.02066821109231051</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.58338</v>
+      </c>
+      <c r="I22">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J22">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.1833036666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.549911</v>
+      </c>
+      <c r="O22">
+        <v>0.02058448242189054</v>
+      </c>
+      <c r="P22">
+        <v>0.02487277326643314</v>
+      </c>
+      <c r="Q22">
+        <v>0.1578476754644444</v>
+      </c>
+      <c r="R22">
+        <v>1.42062907918</v>
+      </c>
+      <c r="S22">
+        <v>0.0009835701907047075</v>
+      </c>
+      <c r="T22">
+        <v>0.00125994765957826</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.58338</v>
+      </c>
+      <c r="I23">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J23">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.250485</v>
+      </c>
+      <c r="N23">
+        <v>0.751455</v>
+      </c>
+      <c r="O23">
+        <v>0.02812875581383488</v>
+      </c>
+      <c r="P23">
+        <v>0.03398871787421513</v>
+      </c>
+      <c r="Q23">
+        <v>0.2156993131</v>
+      </c>
+      <c r="R23">
+        <v>1.9412938179</v>
+      </c>
+      <c r="S23">
+        <v>0.001344051560445247</v>
+      </c>
+      <c r="T23">
+        <v>0.0017217221850961</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.58338</v>
+      </c>
+      <c r="I24">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J24">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.8583593333333334</v>
+      </c>
+      <c r="N24">
+        <v>2.575078</v>
+      </c>
+      <c r="O24">
+        <v>0.09639132118833237</v>
+      </c>
+      <c r="P24">
+        <v>0.1164721768383977</v>
+      </c>
+      <c r="Q24">
+        <v>0.7391561115155556</v>
+      </c>
+      <c r="R24">
+        <v>6.65240500364</v>
+      </c>
+      <c r="S24">
+        <v>0.004605781589274441</v>
+      </c>
+      <c r="T24">
+        <v>0.005899979268156968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.58338</v>
+      </c>
+      <c r="I25">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J25">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.4727</v>
+      </c>
+      <c r="N25">
+        <v>6.9454</v>
+      </c>
+      <c r="O25">
+        <v>0.3899743709791181</v>
+      </c>
+      <c r="P25">
+        <v>0.3141442150542265</v>
+      </c>
+      <c r="Q25">
+        <v>2.990434575333333</v>
+      </c>
+      <c r="R25">
+        <v>17.942607452</v>
+      </c>
+      <c r="S25">
+        <v>0.01863380184026272</v>
+      </c>
+      <c r="T25">
+        <v>0.01591319408928872</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.0670265</v>
+      </c>
+      <c r="H26">
+        <v>6.134053</v>
+      </c>
+      <c r="I26">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J26">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.1331785</v>
+      </c>
+      <c r="N26">
+        <v>2.266357</v>
+      </c>
+      <c r="O26">
+        <v>0.127252734974101</v>
+      </c>
+      <c r="P26">
+        <v>0.1025085582972401</v>
+      </c>
+      <c r="Q26">
+        <v>3.47548848873025</v>
+      </c>
+      <c r="R26">
+        <v>13.901953954921</v>
+      </c>
+      <c r="S26">
+        <v>0.02165623830439256</v>
+      </c>
+      <c r="T26">
+        <v>0.01232956202697026</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.0670265</v>
+      </c>
+      <c r="H27">
+        <v>6.134053</v>
+      </c>
+      <c r="I27">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J27">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.006917666666666</v>
+      </c>
+      <c r="N27">
+        <v>9.020752999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.3376683346227231</v>
+      </c>
+      <c r="P27">
+        <v>0.4080135586694875</v>
+      </c>
+      <c r="Q27">
+        <v>9.222296166984831</v>
+      </c>
+      <c r="R27">
+        <v>55.33377700190899</v>
+      </c>
+      <c r="S27">
+        <v>0.05746537332911043</v>
+      </c>
+      <c r="T27">
+        <v>0.04907520467582027</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.0670265</v>
+      </c>
+      <c r="H28">
+        <v>6.134053</v>
+      </c>
+      <c r="I28">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J28">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.1833036666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.549911</v>
+      </c>
+      <c r="O28">
+        <v>0.02058448242189054</v>
+      </c>
+      <c r="P28">
+        <v>0.02487277326643314</v>
+      </c>
+      <c r="Q28">
+        <v>0.5621972032138334</v>
+      </c>
+      <c r="R28">
+        <v>3.373183219283</v>
+      </c>
+      <c r="S28">
+        <v>0.003503126724873683</v>
+      </c>
+      <c r="T28">
+        <v>0.002991656558879841</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.0670265</v>
+      </c>
+      <c r="H29">
+        <v>6.134053</v>
+      </c>
+      <c r="I29">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J29">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.250485</v>
+      </c>
+      <c r="N29">
+        <v>0.751455</v>
+      </c>
+      <c r="O29">
+        <v>0.02812875581383488</v>
+      </c>
+      <c r="P29">
+        <v>0.03398871787421513</v>
+      </c>
+      <c r="Q29">
+        <v>0.7682441328525</v>
+      </c>
+      <c r="R29">
+        <v>4.609464797115</v>
+      </c>
+      <c r="S29">
+        <v>0.004787032979954853</v>
+      </c>
+      <c r="T29">
+        <v>0.004088107492763468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>3.04675560919185</v>
-      </c>
-      <c r="H21">
-        <v>3.04675560919185</v>
-      </c>
-      <c r="I21">
-        <v>0.1828653900809522</v>
-      </c>
-      <c r="J21">
-        <v>0.1828653900809522</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>3.42132459762458</v>
-      </c>
-      <c r="N21">
-        <v>3.42132459762458</v>
-      </c>
-      <c r="O21">
-        <v>0.425843859156224</v>
-      </c>
-      <c r="P21">
-        <v>0.425843859156224</v>
-      </c>
-      <c r="Q21">
-        <v>10.42393990867874</v>
-      </c>
-      <c r="R21">
-        <v>10.42393990867874</v>
-      </c>
-      <c r="S21">
-        <v>0.07787210341818095</v>
-      </c>
-      <c r="T21">
-        <v>0.07787210341818095</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.0670265</v>
+      </c>
+      <c r="H30">
+        <v>6.134053</v>
+      </c>
+      <c r="I30">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J30">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.8583593333333334</v>
+      </c>
+      <c r="N30">
+        <v>2.575078</v>
+      </c>
+      <c r="O30">
+        <v>0.09639132118833237</v>
+      </c>
+      <c r="P30">
+        <v>0.1164721768383977</v>
+      </c>
+      <c r="Q30">
+        <v>2.632610821855667</v>
+      </c>
+      <c r="R30">
+        <v>15.795664931134</v>
+      </c>
+      <c r="S30">
+        <v>0.01640415369111415</v>
+      </c>
+      <c r="T30">
+        <v>0.01400908326679623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.0670265</v>
+      </c>
+      <c r="H31">
+        <v>6.134053</v>
+      </c>
+      <c r="I31">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J31">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.4727</v>
+      </c>
+      <c r="N31">
+        <v>6.9454</v>
+      </c>
+      <c r="O31">
+        <v>0.3899743709791181</v>
+      </c>
+      <c r="P31">
+        <v>0.3141442150542265</v>
+      </c>
+      <c r="Q31">
+        <v>10.65086292655</v>
+      </c>
+      <c r="R31">
+        <v>42.6034517062</v>
+      </c>
+      <c r="S31">
+        <v>0.06636696580429655</v>
+      </c>
+      <c r="T31">
+        <v>0.03778475328561176</v>
       </c>
     </row>
   </sheetData>
